--- a/RedBloodCellModel/resources/settingfiles/Dictionary-VLL-edit2.xlsx
+++ b/RedBloodCellModel/resources/settingfiles/Dictionary-VLL-edit2.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="184">
   <si>
     <t>time</t>
   </si>
@@ -789,6 +789,9 @@
   </si>
   <si>
     <t>HEPES covers widest range of experimental material available on research with RBC suspensions, but other buffers available (A = anionic, C = cationic)</t>
+  </si>
+  <si>
+    <t>edgto</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1410,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1736,7 @@
         <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
         <v>154</v>
